--- a/not_available.xlsx
+++ b/not_available.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD95A0-2233-49E5-AE18-37224D04A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E463C-0253-45CD-B21D-0EB0D284DD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="636" windowWidth="13704" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>room_id</t>
   </si>
   <si>
-    <t>date</t>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -349,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,316 +363,158 @@
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>44655</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
-        <v>44656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44919</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>44657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44866</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
-        <v>44658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44852</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
-        <v>44919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44762</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
-        <v>44920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44775</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>44921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44733</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1">
-        <v>44922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44968</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44970</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44987</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>44868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45021</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
-        <v>44870</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44854</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44765</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1">
-        <v>44767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>39</v>
-      </c>
-      <c r="B29" s="1">
-        <v>44775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44777</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1">
-        <v>44778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1">
-        <v>44779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>39</v>
-      </c>
-      <c r="B34" s="1">
-        <v>44780</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1">
-        <v>44781</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1">
-        <v>44733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" s="1">
-        <v>44735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>44736</v>
+        <v>45030</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45036</v>
       </c>
     </row>
   </sheetData>
